--- a/вариант/И.Баженов/1/18_16451_16451.xlsx
+++ b/вариант/И.Баженов/1/18_16451_16451.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADA\OneDrive\Документы\Варианты 2024\ЕГЭ №18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E0F912-3F24-4DEC-8276-1BC2E2F0F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,12 +33,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -164,20 +180,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -238,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -273,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -450,23 +471,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="18" width="6.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1">
         <v>6</v>
       </c>
@@ -522,7 +546,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1">
       <c r="A2" s="4">
         <v>32</v>
       </c>
@@ -532,10 +556,10 @@
       <c r="C2" s="5">
         <v>98</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>38</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="6">
         <v>29</v>
       </c>
       <c r="F2" s="5">
@@ -547,7 +571,7 @@
       <c r="H2" s="5">
         <v>48</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="7">
         <v>29</v>
       </c>
       <c r="J2" s="5">
@@ -574,18 +598,18 @@
       <c r="Q2" s="5">
         <v>59</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="8">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="4">
         <v>82</v>
       </c>
       <c r="B3" s="5">
         <v>36</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>61</v>
       </c>
       <c r="D3" s="5">
@@ -603,7 +627,7 @@
       <c r="H3" s="5">
         <v>12</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <v>69</v>
       </c>
       <c r="J3" s="5">
@@ -615,10 +639,10 @@
       <c r="L3" s="5">
         <v>40</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="6">
         <v>96</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="6">
         <v>52</v>
       </c>
       <c r="O3" s="5">
@@ -630,11 +654,11 @@
       <c r="Q3" s="5">
         <v>75</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="8">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickTop="1">
       <c r="A4" s="4">
         <v>9</v>
       </c>
@@ -659,7 +683,7 @@
       <c r="H4" s="5">
         <v>51</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <v>20</v>
       </c>
       <c r="J4" s="5">
@@ -674,7 +698,7 @@
       <c r="M4" s="5">
         <v>26</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="7">
         <v>86</v>
       </c>
       <c r="O4" s="5">
@@ -686,11 +710,11 @@
       <c r="Q4" s="5">
         <v>60</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="4">
         <v>57</v>
       </c>
@@ -730,7 +754,7 @@
       <c r="M5" s="5">
         <v>77</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="7">
         <v>5</v>
       </c>
       <c r="O5" s="5">
@@ -742,11 +766,11 @@
       <c r="Q5" s="5">
         <v>28</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="8">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -765,7 +789,7 @@
       <c r="F6" s="5">
         <v>91</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <v>73</v>
       </c>
       <c r="H6" s="5">
@@ -786,7 +810,7 @@
       <c r="M6" s="5">
         <v>60</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="7">
         <v>41</v>
       </c>
       <c r="O6" s="5">
@@ -798,18 +822,18 @@
       <c r="Q6" s="5">
         <v>10</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="8">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="5">
         <v>80</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>99</v>
       </c>
       <c r="D7" s="5">
@@ -821,7 +845,7 @@
       <c r="F7" s="5">
         <v>4</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>60</v>
       </c>
       <c r="H7" s="5">
@@ -842,7 +866,7 @@
       <c r="M7" s="5">
         <v>64</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="7">
         <v>32</v>
       </c>
       <c r="O7" s="5">
@@ -854,15 +878,15 @@
       <c r="Q7" s="5">
         <v>65</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="8">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="15.75" thickTop="1">
       <c r="A8" s="4">
         <v>18</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>95</v>
       </c>
       <c r="C8" s="5">
@@ -877,7 +901,7 @@
       <c r="F8" s="5">
         <v>78</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>56</v>
       </c>
       <c r="H8" s="5">
@@ -910,15 +934,15 @@
       <c r="Q8" s="5">
         <v>90</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>57</v>
       </c>
       <c r="C9" s="5">
@@ -933,7 +957,7 @@
       <c r="F9" s="5">
         <v>26</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>7</v>
       </c>
       <c r="H9" s="5">
@@ -942,7 +966,7 @@
       <c r="I9" s="5">
         <v>65</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="7">
         <v>98</v>
       </c>
       <c r="K9" s="5">
@@ -966,15 +990,15 @@
       <c r="Q9" s="5">
         <v>44</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="A10" s="4">
         <v>40</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>9</v>
       </c>
       <c r="C10" s="5">
@@ -989,7 +1013,7 @@
       <c r="F10" s="5">
         <v>84</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="7">
         <v>57</v>
       </c>
       <c r="H10" s="5">
@@ -998,16 +1022,16 @@
       <c r="I10" s="5">
         <v>80</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="7">
         <v>60</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="6">
         <v>98</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="6">
         <v>56</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="6">
         <v>45</v>
       </c>
       <c r="N10" s="5">
@@ -1022,18 +1046,18 @@
       <c r="Q10" s="5">
         <v>95</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="4">
         <v>97</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>38</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="6">
         <v>72</v>
       </c>
       <c r="D11" s="5">
@@ -1045,10 +1069,10 @@
       <c r="F11" s="5">
         <v>11</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>89</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="6">
         <v>17</v>
       </c>
       <c r="I11" s="5">
@@ -1063,7 +1087,7 @@
       <c r="L11" s="5">
         <v>11</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="7">
         <v>94</v>
       </c>
       <c r="N11" s="5">
@@ -1072,24 +1096,24 @@
       <c r="O11" s="5">
         <v>11</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P11" s="6">
         <v>90</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="6">
         <v>73</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1">
       <c r="A12" s="4">
         <v>54</v>
       </c>
       <c r="B12" s="5">
         <v>32</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>4</v>
       </c>
       <c r="D12" s="5">
@@ -1104,7 +1128,7 @@
       <c r="G12" s="5">
         <v>98</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="7">
         <v>93</v>
       </c>
       <c r="I12" s="5">
@@ -1119,7 +1143,7 @@
       <c r="L12" s="5">
         <v>60</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="7">
         <v>35</v>
       </c>
       <c r="N12" s="5">
@@ -1134,11 +1158,11 @@
       <c r="Q12" s="5">
         <v>98</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="4">
         <v>78</v>
       </c>
@@ -1160,7 +1184,7 @@
       <c r="G13" s="5">
         <v>99</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <v>70</v>
       </c>
       <c r="I13" s="5">
@@ -1175,7 +1199,7 @@
       <c r="L13" s="5">
         <v>18</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="7">
         <v>6</v>
       </c>
       <c r="N13" s="5">
@@ -1190,11 +1214,11 @@
       <c r="Q13" s="5">
         <v>29</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="4">
         <v>79</v>
       </c>
@@ -1231,7 +1255,7 @@
       <c r="L14" s="5">
         <v>74</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="7">
         <v>68</v>
       </c>
       <c r="N14" s="5">
@@ -1246,11 +1270,11 @@
       <c r="Q14" s="5">
         <v>96</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="4">
         <v>58</v>
       </c>
@@ -1266,7 +1290,7 @@
       <c r="E15" s="5">
         <v>91</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="7">
         <v>92</v>
       </c>
       <c r="G15" s="5">
@@ -1302,11 +1326,11 @@
       <c r="Q15" s="5">
         <v>59</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="8">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="4">
         <v>66</v>
       </c>
@@ -1322,7 +1346,7 @@
       <c r="E16" s="5">
         <v>75</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="7">
         <v>7</v>
       </c>
       <c r="G16" s="5">
@@ -1358,11 +1382,11 @@
       <c r="Q16" s="5">
         <v>31</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="8">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1">
       <c r="A17" s="4">
         <v>56</v>
       </c>
@@ -1378,7 +1402,7 @@
       <c r="E17" s="5">
         <v>91</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <v>81</v>
       </c>
       <c r="G17" s="5">
@@ -1390,10 +1414,10 @@
       <c r="I17" s="5">
         <v>26</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="6">
         <v>26</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="6">
         <v>1</v>
       </c>
       <c r="L17" s="5">
@@ -1414,63 +1438,1330 @@
       <c r="Q17" s="5">
         <v>31</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="8">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+    <row r="18" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="9">
         <v>31</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>34</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <v>28</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="10">
         <v>79</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="10">
         <v>63</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="11">
         <v>58</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="10">
         <v>34</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="10">
         <v>63</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="10">
         <v>29</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="10">
         <v>4</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="10">
         <v>32</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="10">
         <v>56</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="10">
         <v>64</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="10">
         <v>69</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="10">
         <v>28</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="10">
         <v>87</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="10">
         <v>29</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <f>MIN(B22,A23)+A1</f>
+        <v>1263</v>
+      </c>
+      <c r="B22" s="2">
+        <f>MIN(C22,B23)+B1</f>
+        <v>1257</v>
+      </c>
+      <c r="C22" s="2">
+        <f>MIN(D22,C23)+C1</f>
+        <v>1277</v>
+      </c>
+      <c r="D22" s="2">
+        <f>MIN(E22,D23)+D1</f>
+        <v>1225</v>
+      </c>
+      <c r="E22" s="2">
+        <f>MIN(F22,E23)+E1</f>
+        <v>1181</v>
+      </c>
+      <c r="F22" s="2">
+        <f>MIN(G22,F23)+F1</f>
+        <v>1135</v>
+      </c>
+      <c r="G22" s="2">
+        <f>MIN(H22,G23)+G1</f>
+        <v>1068</v>
+      </c>
+      <c r="H22" s="2">
+        <f>MIN(I22,H23)+H1</f>
+        <v>1070</v>
+      </c>
+      <c r="I22" s="2">
+        <f>MIN(J22,I23)+I1</f>
+        <v>1189</v>
+      </c>
+      <c r="J22" s="2">
+        <f>MIN(K22,J23)+J1</f>
+        <v>1120</v>
+      </c>
+      <c r="K22" s="2">
+        <f>MIN(L22,K23)+K1</f>
+        <v>1021</v>
+      </c>
+      <c r="L22" s="2">
+        <f>MIN(M22,L23)+L1</f>
+        <v>987</v>
+      </c>
+      <c r="M22" s="2">
+        <f>MIN(N22,M23)+M1</f>
+        <v>1104</v>
+      </c>
+      <c r="N22" s="2">
+        <f>MIN(O22,N23)+N1</f>
+        <v>1096</v>
+      </c>
+      <c r="O22" s="2">
+        <f>MIN(P22,O23)+O1</f>
+        <v>1020</v>
+      </c>
+      <c r="P22" s="2">
+        <f>MIN(Q22,P23)+P1</f>
+        <v>991</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>MIN(R22,Q23)+Q1</f>
+        <v>1029</v>
+      </c>
+      <c r="R22" s="13">
+        <f t="shared" ref="R22:R37" si="0">R23+R1</f>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A23" s="4">
+        <f>MIN(B23,A24)+A2</f>
+        <v>1288</v>
+      </c>
+      <c r="B23" s="5">
+        <f>MIN(C23,B24)+B2</f>
+        <v>1256</v>
+      </c>
+      <c r="C23" s="5">
+        <f>MIN(D23,C24)+C2</f>
+        <v>1238</v>
+      </c>
+      <c r="D23" s="17">
+        <f t="shared" ref="D23:E23" si="1">E23+D2</f>
+        <v>1140</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="1"/>
+        <v>1102</v>
+      </c>
+      <c r="F23" s="5">
+        <f>MIN(G23,F24)+F2</f>
+        <v>1073</v>
+      </c>
+      <c r="G23" s="5">
+        <f>MIN(H23,G24)+G2</f>
+        <v>1000</v>
+      </c>
+      <c r="H23" s="5">
+        <f>MIN(I23,H24)+H2</f>
+        <v>1036</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" ref="I23:I25" si="2">I24+I2</f>
+        <v>1117</v>
+      </c>
+      <c r="J23" s="5">
+        <f>MIN(K23,J24)+J2</f>
+        <v>1115</v>
+      </c>
+      <c r="K23" s="5">
+        <f>MIN(L23,K24)+K2</f>
+        <v>1016</v>
+      </c>
+      <c r="L23" s="5">
+        <f>MIN(M23,L24)+L2</f>
+        <v>979</v>
+      </c>
+      <c r="M23" s="5">
+        <f>MIN(N23,M24)+M2</f>
+        <v>1099</v>
+      </c>
+      <c r="N23" s="5">
+        <f>MIN(O23,N24)+N2</f>
+        <v>1055</v>
+      </c>
+      <c r="O23" s="5">
+        <f>MIN(P23,O24)+O2</f>
+        <v>996</v>
+      </c>
+      <c r="P23" s="5">
+        <f>MIN(Q23,P24)+P2</f>
+        <v>988</v>
+      </c>
+      <c r="Q23" s="5">
+        <f>MIN(R23,Q24)+Q2</f>
+        <v>967</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="0"/>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="4">
+        <f>MIN(B24,A25)+A3</f>
+        <v>1270</v>
+      </c>
+      <c r="B24" s="5">
+        <f>MIN(C24,B25)+B3</f>
+        <v>1248</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C25+C3</f>
+        <v>1274</v>
+      </c>
+      <c r="D24" s="5">
+        <f>MIN(E24,D25)+D3</f>
+        <v>1222</v>
+      </c>
+      <c r="E24" s="5">
+        <f>MIN(F24,E25)+E3</f>
+        <v>1141</v>
+      </c>
+      <c r="F24" s="5">
+        <f>MIN(G24,F25)+F3</f>
+        <v>1084</v>
+      </c>
+      <c r="G24" s="5">
+        <f>MIN(H24,G25)+G3</f>
+        <v>997</v>
+      </c>
+      <c r="H24" s="5">
+        <f>MIN(I24,H25)+H3</f>
+        <v>988</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" si="2"/>
+        <v>1088</v>
+      </c>
+      <c r="J24" s="5">
+        <f>MIN(K24,J25)+J3</f>
+        <v>1019</v>
+      </c>
+      <c r="K24" s="5">
+        <f>MIN(L24,K25)+K3</f>
+        <v>922</v>
+      </c>
+      <c r="L24" s="5">
+        <f>MIN(M24,L25)+L3</f>
+        <v>886</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" ref="M24:N24" si="3">N24+M3</f>
+        <v>1062</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="3"/>
+        <v>966</v>
+      </c>
+      <c r="O24" s="5">
+        <f>MIN(P24,O25)+O3</f>
+        <v>914</v>
+      </c>
+      <c r="P24" s="5">
+        <f>MIN(Q24,P25)+P3</f>
+        <v>969</v>
+      </c>
+      <c r="Q24" s="5">
+        <f>MIN(R24,Q25)+Q3</f>
+        <v>908</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="0"/>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickTop="1">
+      <c r="A25" s="4">
+        <f>MIN(B25,A26)+A4</f>
+        <v>1188</v>
+      </c>
+      <c r="B25" s="5">
+        <f>MIN(C25,B26)+B4</f>
+        <v>1212</v>
+      </c>
+      <c r="C25" s="5">
+        <f>MIN(D25,C26)+C4</f>
+        <v>1213</v>
+      </c>
+      <c r="D25" s="5">
+        <f>MIN(E25,D26)+D4</f>
+        <v>1122</v>
+      </c>
+      <c r="E25" s="5">
+        <f>MIN(F25,E26)+E4</f>
+        <v>1161</v>
+      </c>
+      <c r="F25" s="5">
+        <f>MIN(G25,F26)+F4</f>
+        <v>1149</v>
+      </c>
+      <c r="G25" s="5">
+        <f>MIN(H25,G26)+G4</f>
+        <v>1066</v>
+      </c>
+      <c r="H25" s="5">
+        <f>MIN(I25,H26)+H4</f>
+        <v>976</v>
+      </c>
+      <c r="I25" s="16">
+        <f t="shared" si="2"/>
+        <v>1019</v>
+      </c>
+      <c r="J25" s="5">
+        <f>MIN(K25,J26)+J4</f>
+        <v>949</v>
+      </c>
+      <c r="K25" s="5">
+        <f>MIN(L25,K26)+K4</f>
+        <v>909</v>
+      </c>
+      <c r="L25" s="5">
+        <f>MIN(M25,L26)+L4</f>
+        <v>846</v>
+      </c>
+      <c r="M25" s="5">
+        <f>MIN(N25,M26)+M4</f>
+        <v>804</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" ref="N25:N28" si="4">N26+N4</f>
+        <v>787</v>
+      </c>
+      <c r="O25" s="5">
+        <f>MIN(P25,O26)+O4</f>
+        <v>887</v>
+      </c>
+      <c r="P25" s="5">
+        <f>MIN(Q25,P26)+P4</f>
+        <v>874</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>MIN(R25,Q26)+Q4</f>
+        <v>833</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="4">
+        <f>MIN(B26,A27)+A5</f>
+        <v>1179</v>
+      </c>
+      <c r="B26" s="5">
+        <f>MIN(C26,B27)+B5</f>
+        <v>1211</v>
+      </c>
+      <c r="C26" s="5">
+        <f>MIN(D26,C27)+C5</f>
+        <v>1170</v>
+      </c>
+      <c r="D26" s="5">
+        <f>MIN(E26,D27)+D5</f>
+        <v>1081</v>
+      </c>
+      <c r="E26" s="5">
+        <f>MIN(F26,E27)+E5</f>
+        <v>1181</v>
+      </c>
+      <c r="F26" s="5">
+        <f>MIN(G26,F27)+F5</f>
+        <v>1092</v>
+      </c>
+      <c r="G26" s="5">
+        <f>MIN(H26,G27)+G5</f>
+        <v>1024</v>
+      </c>
+      <c r="H26" s="5">
+        <f>MIN(I26,H27)+H5</f>
+        <v>925</v>
+      </c>
+      <c r="I26" s="5">
+        <f>MIN(J26,I27)+I5</f>
+        <v>999</v>
+      </c>
+      <c r="J26" s="5">
+        <f>MIN(K26,J27)+J5</f>
+        <v>913</v>
+      </c>
+      <c r="K26" s="5">
+        <f>MIN(L26,K27)+K5</f>
+        <v>951</v>
+      </c>
+      <c r="L26" s="5">
+        <f>MIN(M26,L27)+L5</f>
+        <v>869</v>
+      </c>
+      <c r="M26" s="5">
+        <f>MIN(N26,M27)+M5</f>
+        <v>778</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="4"/>
+        <v>701</v>
+      </c>
+      <c r="O26" s="5">
+        <f>MIN(P26,O27)+O5</f>
+        <v>791</v>
+      </c>
+      <c r="P26" s="5">
+        <f>MIN(Q26,P27)+P5</f>
+        <v>824</v>
+      </c>
+      <c r="Q26" s="5">
+        <f>MIN(R26,Q27)+Q5</f>
+        <v>773</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" si="0"/>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="4">
+        <f>MIN(B27,A28)+A6</f>
+        <v>1122</v>
+      </c>
+      <c r="B27" s="5">
+        <f>MIN(C27,B28)+B6</f>
+        <v>1166</v>
+      </c>
+      <c r="C27" s="5">
+        <f>MIN(D27,C28)+C6</f>
+        <v>1138</v>
+      </c>
+      <c r="D27" s="5">
+        <f>MIN(E27,D28)+D6</f>
+        <v>1062</v>
+      </c>
+      <c r="E27" s="5">
+        <f>MIN(F27,E28)+E6</f>
+        <v>1094</v>
+      </c>
+      <c r="F27" s="5">
+        <f>MIN(G27,F28)+F6</f>
+        <v>1105</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" ref="G27:G32" si="5">G28+G6</f>
+        <v>1163</v>
+      </c>
+      <c r="H27" s="5">
+        <f>MIN(I27,H28)+H6</f>
+        <v>851</v>
+      </c>
+      <c r="I27" s="5">
+        <f>MIN(J27,I28)+I6</f>
+        <v>958</v>
+      </c>
+      <c r="J27" s="5">
+        <f>MIN(K27,J28)+J6</f>
+        <v>860</v>
+      </c>
+      <c r="K27" s="5">
+        <f>MIN(L27,K28)+K6</f>
+        <v>874</v>
+      </c>
+      <c r="L27" s="5">
+        <f>MIN(M27,L28)+L6</f>
+        <v>816</v>
+      </c>
+      <c r="M27" s="5">
+        <f>MIN(N27,M28)+M6</f>
+        <v>756</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="4"/>
+        <v>696</v>
+      </c>
+      <c r="O27" s="5">
+        <f>MIN(P27,O28)+O6</f>
+        <v>762</v>
+      </c>
+      <c r="P27" s="5">
+        <f>MIN(Q27,P28)+P6</f>
+        <v>758</v>
+      </c>
+      <c r="Q27" s="5">
+        <f>MIN(R27,Q28)+Q6</f>
+        <v>745</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="0"/>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A28" s="4">
+        <f>MIN(B28,A29)+A7</f>
+        <v>1022</v>
+      </c>
+      <c r="B28" s="5">
+        <f>MIN(C28,B29)+B7</f>
+        <v>1186</v>
+      </c>
+      <c r="C28" s="17">
+        <f>D28+C7</f>
+        <v>1150</v>
+      </c>
+      <c r="D28" s="5">
+        <f>MIN(E28,D29)+D7</f>
+        <v>1051</v>
+      </c>
+      <c r="E28" s="5">
+        <f>MIN(F28,E29)+E7</f>
+        <v>1025</v>
+      </c>
+      <c r="F28" s="5">
+        <f>MIN(G28,F29)+F7</f>
+        <v>1014</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="5"/>
+        <v>1090</v>
+      </c>
+      <c r="H28" s="5">
+        <f>MIN(I28,H29)+H7</f>
+        <v>775</v>
+      </c>
+      <c r="I28" s="5">
+        <f>MIN(J28,I29)+I7</f>
+        <v>875</v>
+      </c>
+      <c r="J28" s="5">
+        <f>MIN(K28,J29)+J7</f>
+        <v>781</v>
+      </c>
+      <c r="K28" s="5">
+        <f>MIN(L28,K29)+K7</f>
+        <v>777</v>
+      </c>
+      <c r="L28" s="5">
+        <f>MIN(M28,L29)+L7</f>
+        <v>767</v>
+      </c>
+      <c r="M28" s="5">
+        <f>MIN(N28,M29)+M7</f>
+        <v>719</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="4"/>
+        <v>655</v>
+      </c>
+      <c r="O28" s="5">
+        <f>MIN(P28,O29)+O7</f>
+        <v>711</v>
+      </c>
+      <c r="P28" s="5">
+        <f>MIN(Q28,P29)+P7</f>
+        <v>774</v>
+      </c>
+      <c r="Q28" s="5">
+        <f>MIN(R28,Q29)+Q7</f>
+        <v>788</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" si="0"/>
+        <v>723</v>
+      </c>
+      <c r="T28">
+        <v>2531</v>
+      </c>
+      <c r="U28">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" thickTop="1">
+      <c r="A29" s="4">
+        <f>MIN(B29,A30)+A8</f>
+        <v>1020</v>
+      </c>
+      <c r="B29" s="16">
+        <f t="shared" ref="B29:B32" si="6">B30+B8</f>
+        <v>1106</v>
+      </c>
+      <c r="C29" s="5">
+        <f>MIN(D29,C30)+C8</f>
+        <v>1108</v>
+      </c>
+      <c r="D29" s="5">
+        <f>MIN(E29,D30)+D8</f>
+        <v>1085</v>
+      </c>
+      <c r="E29" s="5">
+        <f>MIN(F29,E30)+E8</f>
+        <v>985</v>
+      </c>
+      <c r="F29" s="5">
+        <f>MIN(G29,F30)+F8</f>
+        <v>1010</v>
+      </c>
+      <c r="G29" s="16">
+        <f t="shared" si="5"/>
+        <v>1030</v>
+      </c>
+      <c r="H29" s="5">
+        <f>MIN(I29,H30)+H8</f>
+        <v>749</v>
+      </c>
+      <c r="I29" s="5">
+        <f>MIN(J29,I30)+I8</f>
+        <v>848</v>
+      </c>
+      <c r="J29" s="5">
+        <f>MIN(K29,J30)+J8</f>
+        <v>795</v>
+      </c>
+      <c r="K29" s="5">
+        <f>MIN(L29,K30)+K8</f>
+        <v>808</v>
+      </c>
+      <c r="L29" s="5">
+        <f>MIN(M29,L30)+L8</f>
+        <v>740</v>
+      </c>
+      <c r="M29" s="5">
+        <f>MIN(N29,M30)+M8</f>
+        <v>692</v>
+      </c>
+      <c r="N29" s="5">
+        <f>MIN(O29,N30)+N8</f>
+        <v>623</v>
+      </c>
+      <c r="O29" s="5">
+        <f>MIN(P29,O30)+O8</f>
+        <v>641</v>
+      </c>
+      <c r="P29" s="5">
+        <f>MIN(Q29,P30)+P8</f>
+        <v>727</v>
+      </c>
+      <c r="Q29" s="5">
+        <f>MIN(R29,Q30)+Q8</f>
+        <v>752</v>
+      </c>
+      <c r="R29" s="14">
+        <f t="shared" si="0"/>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="4">
+        <f>MIN(B30,A31)+A9</f>
+        <v>1002</v>
+      </c>
+      <c r="B30" s="16">
+        <f t="shared" si="6"/>
+        <v>1011</v>
+      </c>
+      <c r="C30" s="5">
+        <f>MIN(D30,C31)+C9</f>
+        <v>1104</v>
+      </c>
+      <c r="D30" s="5">
+        <f>MIN(E30,D31)+D9</f>
+        <v>1015</v>
+      </c>
+      <c r="E30" s="5">
+        <f>MIN(F30,E31)+E9</f>
+        <v>975</v>
+      </c>
+      <c r="F30" s="5">
+        <f>MIN(G30,F31)+F9</f>
+        <v>932</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="5"/>
+        <v>974</v>
+      </c>
+      <c r="H30" s="5">
+        <f>MIN(I30,H31)+H9</f>
+        <v>747</v>
+      </c>
+      <c r="I30" s="5">
+        <f>MIN(J30,I31)+I9</f>
+        <v>799</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" ref="J30:J31" si="7">J31+J9</f>
+        <v>752</v>
+      </c>
+      <c r="K30" s="5">
+        <f>MIN(L30,K31)+K9</f>
+        <v>719</v>
+      </c>
+      <c r="L30" s="5">
+        <f>MIN(M30,L31)+L9</f>
+        <v>667</v>
+      </c>
+      <c r="M30" s="5">
+        <f>MIN(N30,M31)+M9</f>
+        <v>638</v>
+      </c>
+      <c r="N30" s="5">
+        <f>MIN(O30,N31)+N9</f>
+        <v>573</v>
+      </c>
+      <c r="O30" s="5">
+        <f>MIN(P30,O31)+O9</f>
+        <v>592</v>
+      </c>
+      <c r="P30" s="5">
+        <f>MIN(Q30,P31)+P9</f>
+        <v>726</v>
+      </c>
+      <c r="Q30" s="5">
+        <f>MIN(R30,Q31)+Q9</f>
+        <v>662</v>
+      </c>
+      <c r="R30" s="14">
+        <f t="shared" si="0"/>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.75" thickBot="1">
+      <c r="A31" s="4">
+        <f>MIN(B31,A32)+A10</f>
+        <v>994</v>
+      </c>
+      <c r="B31" s="16">
+        <f t="shared" si="6"/>
+        <v>954</v>
+      </c>
+      <c r="C31" s="5">
+        <f>MIN(D31,C32)+C10</f>
+        <v>1015</v>
+      </c>
+      <c r="D31" s="5">
+        <f>MIN(E31,D32)+D10</f>
+        <v>938</v>
+      </c>
+      <c r="E31" s="5">
+        <f>MIN(F31,E32)+E10</f>
+        <v>913</v>
+      </c>
+      <c r="F31" s="5">
+        <f>MIN(G31,F32)+F10</f>
+        <v>906</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="5"/>
+        <v>967</v>
+      </c>
+      <c r="H31" s="5">
+        <f>MIN(I31,H32)+H10</f>
+        <v>725</v>
+      </c>
+      <c r="I31" s="5">
+        <f>MIN(J31,I32)+I10</f>
+        <v>734</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="7"/>
+        <v>654</v>
+      </c>
+      <c r="K31" s="17">
+        <f t="shared" ref="K31:M31" si="8">L31+K10</f>
+        <v>716</v>
+      </c>
+      <c r="L31" s="17">
+        <f t="shared" si="8"/>
+        <v>618</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="8"/>
+        <v>562</v>
+      </c>
+      <c r="N31" s="5">
+        <f>MIN(O31,N32)+N10</f>
+        <v>517</v>
+      </c>
+      <c r="O31" s="5">
+        <f>MIN(P31,O32)+O10</f>
+        <v>508</v>
+      </c>
+      <c r="P31" s="5">
+        <f>MIN(Q31,P32)+P10</f>
+        <v>709</v>
+      </c>
+      <c r="Q31" s="5">
+        <f>MIN(R31,Q32)+Q10</f>
+        <v>622</v>
+      </c>
+      <c r="R31" s="14">
+        <f t="shared" si="0"/>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A32" s="4">
+        <f>MIN(B32,A33)+A11</f>
+        <v>1042</v>
+      </c>
+      <c r="B32" s="16">
+        <f t="shared" si="6"/>
+        <v>945</v>
+      </c>
+      <c r="C32" s="17">
+        <f>D32+C11</f>
+        <v>999</v>
+      </c>
+      <c r="D32" s="5">
+        <f>MIN(E32,D33)+D11</f>
+        <v>927</v>
+      </c>
+      <c r="E32" s="5">
+        <f>MIN(F32,E33)+E11</f>
+        <v>895</v>
+      </c>
+      <c r="F32" s="5">
+        <f>MIN(G32,F33)+F11</f>
+        <v>822</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" si="5"/>
+        <v>910</v>
+      </c>
+      <c r="H32" s="17">
+        <f>I32+H11</f>
+        <v>697</v>
+      </c>
+      <c r="I32" s="5">
+        <f>MIN(J32,I33)+I11</f>
+        <v>680</v>
+      </c>
+      <c r="J32" s="5">
+        <f>MIN(K32,J33)+J11</f>
+        <v>594</v>
+      </c>
+      <c r="K32" s="5">
+        <f>MIN(L32,K33)+K11</f>
+        <v>577</v>
+      </c>
+      <c r="L32" s="5">
+        <f>MIN(M32,L33)+L11</f>
+        <v>556</v>
+      </c>
+      <c r="M32" s="16">
+        <f t="shared" ref="M32:M35" si="9">M33+M11</f>
+        <v>596</v>
+      </c>
+      <c r="N32" s="5">
+        <f>MIN(O32,N33)+N11</f>
+        <v>510</v>
+      </c>
+      <c r="O32" s="5">
+        <f>MIN(P32,O33)+O11</f>
+        <v>421</v>
+      </c>
+      <c r="P32" s="17">
+        <f t="shared" ref="P32:Q32" si="10">Q32+P11</f>
+        <v>670</v>
+      </c>
+      <c r="Q32" s="17">
+        <f t="shared" si="10"/>
+        <v>580</v>
+      </c>
+      <c r="R32" s="14">
+        <f t="shared" si="0"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" thickTop="1">
+      <c r="A33" s="4">
+        <f>MIN(B33,A34)+A12</f>
+        <v>961</v>
+      </c>
+      <c r="B33" s="5">
+        <f>MIN(C33,B34)+B12</f>
+        <v>907</v>
+      </c>
+      <c r="C33" s="16">
+        <f>C34+C12</f>
+        <v>875</v>
+      </c>
+      <c r="D33" s="5">
+        <f>MIN(E33,D34)+D12</f>
+        <v>928</v>
+      </c>
+      <c r="E33" s="5">
+        <f>MIN(F33,E34)+E12</f>
+        <v>845</v>
+      </c>
+      <c r="F33" s="5">
+        <f>MIN(G33,F34)+F12</f>
+        <v>811</v>
+      </c>
+      <c r="G33" s="5">
+        <f>MIN(H33,G34)+G12</f>
+        <v>821</v>
+      </c>
+      <c r="H33" s="16">
+        <f t="shared" ref="H33:H34" si="11">H34+H12</f>
+        <v>789</v>
+      </c>
+      <c r="I33" s="5">
+        <f>MIN(J33,I34)+I12</f>
+        <v>584</v>
+      </c>
+      <c r="J33" s="5">
+        <f>MIN(K33,J34)+J12</f>
+        <v>578</v>
+      </c>
+      <c r="K33" s="5">
+        <f>MIN(L33,K34)+K12</f>
+        <v>557</v>
+      </c>
+      <c r="L33" s="5">
+        <f>MIN(M33,L34)+L12</f>
+        <v>545</v>
+      </c>
+      <c r="M33" s="16">
+        <f t="shared" si="9"/>
+        <v>502</v>
+      </c>
+      <c r="N33" s="5">
+        <f>MIN(O33,N34)+N12</f>
+        <v>510</v>
+      </c>
+      <c r="O33" s="5">
+        <f>MIN(P33,O34)+O12</f>
+        <v>410</v>
+      </c>
+      <c r="P33" s="5">
+        <f>MIN(Q33,P34)+P12</f>
+        <v>402</v>
+      </c>
+      <c r="Q33" s="5">
+        <f>MIN(R33,Q34)+Q12</f>
+        <v>463</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="4">
+        <f>MIN(B34,A35)+A13</f>
+        <v>969</v>
+      </c>
+      <c r="B34" s="5">
+        <f>MIN(C34,B35)+B13</f>
+        <v>891</v>
+      </c>
+      <c r="C34" s="5">
+        <f>MIN(D34,C35)+C13</f>
+        <v>871</v>
+      </c>
+      <c r="D34" s="5">
+        <f>MIN(E34,D35)+D13</f>
+        <v>862</v>
+      </c>
+      <c r="E34" s="5">
+        <f>MIN(F34,E35)+E13</f>
+        <v>820</v>
+      </c>
+      <c r="F34" s="5">
+        <f>MIN(G34,F35)+F13</f>
+        <v>796</v>
+      </c>
+      <c r="G34" s="5">
+        <f>MIN(H34,G35)+G13</f>
+        <v>723</v>
+      </c>
+      <c r="H34" s="16">
+        <f t="shared" si="11"/>
+        <v>696</v>
+      </c>
+      <c r="I34" s="5">
+        <f>MIN(J34,I35)+I13</f>
+        <v>738</v>
+      </c>
+      <c r="J34" s="5">
+        <f>MIN(K34,J35)+J13</f>
+        <v>643</v>
+      </c>
+      <c r="K34" s="5">
+        <f>MIN(L34,K35)+K13</f>
+        <v>557</v>
+      </c>
+      <c r="L34" s="5">
+        <f>MIN(M34,L35)+L13</f>
+        <v>485</v>
+      </c>
+      <c r="M34" s="16">
+        <f t="shared" si="9"/>
+        <v>467</v>
+      </c>
+      <c r="N34" s="5">
+        <f>MIN(O34,N35)+N13</f>
+        <v>433</v>
+      </c>
+      <c r="O34" s="5">
+        <f>MIN(P34,O35)+O13</f>
+        <v>422</v>
+      </c>
+      <c r="P34" s="5">
+        <f>MIN(Q34,P35)+P13</f>
+        <v>350</v>
+      </c>
+      <c r="Q34" s="5">
+        <f>MIN(R34,Q35)+Q13</f>
+        <v>365</v>
+      </c>
+      <c r="R34" s="14">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="4">
+        <f>MIN(B35,A36)+A14</f>
+        <v>985</v>
+      </c>
+      <c r="B35" s="5">
+        <f>MIN(C35,B36)+B14</f>
+        <v>906</v>
+      </c>
+      <c r="C35" s="5">
+        <f>MIN(D35,C36)+C14</f>
+        <v>890</v>
+      </c>
+      <c r="D35" s="5">
+        <f>MIN(E35,D36)+D14</f>
+        <v>820</v>
+      </c>
+      <c r="E35" s="5">
+        <f>MIN(F35,E36)+E14</f>
+        <v>743</v>
+      </c>
+      <c r="F35" s="5">
+        <f>MIN(G35,F36)+F14</f>
+        <v>715</v>
+      </c>
+      <c r="G35" s="5">
+        <f>MIN(H35,G36)+G14</f>
+        <v>624</v>
+      </c>
+      <c r="H35" s="5">
+        <f>MIN(I35,H36)+H14</f>
+        <v>626</v>
+      </c>
+      <c r="I35" s="5">
+        <f>MIN(J35,I36)+I14</f>
+        <v>659</v>
+      </c>
+      <c r="J35" s="5">
+        <f>MIN(K35,J36)+J14</f>
+        <v>581</v>
+      </c>
+      <c r="K35" s="5">
+        <f>MIN(L35,K36)+K14</f>
+        <v>624</v>
+      </c>
+      <c r="L35" s="5">
+        <f>MIN(M35,L36)+L14</f>
+        <v>535</v>
+      </c>
+      <c r="M35" s="16">
+        <f t="shared" si="9"/>
+        <v>461</v>
+      </c>
+      <c r="N35" s="5">
+        <f>MIN(O35,N36)+N14</f>
+        <v>379</v>
+      </c>
+      <c r="O35" s="5">
+        <f>MIN(P35,O36)+O14</f>
+        <v>374</v>
+      </c>
+      <c r="P35" s="5">
+        <f>MIN(Q35,P36)+P14</f>
+        <v>331</v>
+      </c>
+      <c r="Q35" s="5">
+        <f>MIN(R35,Q36)+Q14</f>
+        <v>336</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="5">
+        <f>MIN(H36,G37)+G15</f>
+        <v>591</v>
+      </c>
+      <c r="H36" s="5">
+        <f>MIN(I36,H37)+H15</f>
+        <v>586</v>
+      </c>
+      <c r="I36" s="5">
+        <f>MIN(J36,I37)+I15</f>
+        <v>568</v>
+      </c>
+      <c r="J36" s="5">
+        <f>MIN(K36,J37)+J15</f>
+        <v>562</v>
+      </c>
+      <c r="K36" s="5">
+        <f>MIN(L36,K37)+K15</f>
+        <v>540</v>
+      </c>
+      <c r="L36" s="5">
+        <f>MIN(M36,L37)+L15</f>
+        <v>493</v>
+      </c>
+      <c r="M36" s="5">
+        <f>MIN(N36,M37)+M15</f>
+        <v>393</v>
+      </c>
+      <c r="N36" s="5">
+        <f>MIN(O36,N37)+N15</f>
+        <v>391</v>
+      </c>
+      <c r="O36" s="5">
+        <f>MIN(P36,O37)+O15</f>
+        <v>303</v>
+      </c>
+      <c r="P36" s="5">
+        <f>MIN(Q36,P37)+P15</f>
+        <v>302</v>
+      </c>
+      <c r="Q36" s="5">
+        <f>MIN(R36,Q37)+Q15</f>
+        <v>240</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="5">
+        <f>MIN(H37,G38)+G16</f>
+        <v>638</v>
+      </c>
+      <c r="H37" s="5">
+        <f>MIN(I37,H38)+H16</f>
+        <v>541</v>
+      </c>
+      <c r="I37" s="5">
+        <f>MIN(J37,I38)+I16</f>
+        <v>521</v>
+      </c>
+      <c r="J37" s="5">
+        <f>MIN(K37,J38)+J16</f>
+        <v>513</v>
+      </c>
+      <c r="K37" s="5">
+        <f>MIN(L37,K38)+K16</f>
+        <v>527</v>
+      </c>
+      <c r="L37" s="5">
+        <f>MIN(M37,L38)+L16</f>
+        <v>428</v>
+      </c>
+      <c r="M37" s="5">
+        <f>MIN(N37,M38)+M16</f>
+        <v>335</v>
+      </c>
+      <c r="N37" s="5">
+        <f>MIN(O37,N38)+N16</f>
+        <v>323</v>
+      </c>
+      <c r="O37" s="5">
+        <f>MIN(P37,O38)+O16</f>
+        <v>282</v>
+      </c>
+      <c r="P37" s="5">
+        <f>MIN(Q37,P38)+P16</f>
+        <v>279</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>MIN(R37,Q38)+Q16</f>
+        <v>181</v>
+      </c>
+      <c r="R37" s="14">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="5">
+        <f>MIN(H38,G39)+G17</f>
+        <v>651</v>
+      </c>
+      <c r="H38" s="5">
+        <f>MIN(I38,H39)+H17</f>
+        <v>584</v>
+      </c>
+      <c r="I38" s="5">
+        <f>MIN(J38,I39)+I17</f>
+        <v>500</v>
+      </c>
+      <c r="J38" s="6">
+        <f>MIN(K38,J39)+J17</f>
+        <v>474</v>
+      </c>
+      <c r="K38" s="6">
+        <f>MIN(L38,K39)+K17</f>
+        <v>448</v>
+      </c>
+      <c r="L38" s="5">
+        <f>MIN(M38,L39)+L17</f>
+        <v>447</v>
+      </c>
+      <c r="M38" s="5">
+        <f>MIN(N38,M39)+M17</f>
+        <v>360</v>
+      </c>
+      <c r="N38" s="5">
+        <f>MIN(O38,N39)+N17</f>
+        <v>266</v>
+      </c>
+      <c r="O38" s="5">
+        <f>MIN(P38,O39)+O17</f>
+        <v>228</v>
+      </c>
+      <c r="P38" s="5">
+        <f>MIN(Q38,P39)+P17</f>
+        <v>218</v>
+      </c>
+      <c r="Q38" s="5">
+        <f>MIN(R38,Q39)+Q17</f>
+        <v>150</v>
+      </c>
+      <c r="R38" s="14">
+        <f>R39+R17</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="15">
+        <f t="shared" ref="A39:P39" si="12">H39+G18</f>
+        <v>585</v>
+      </c>
+      <c r="H39" s="15">
+        <f t="shared" si="12"/>
+        <v>551</v>
+      </c>
+      <c r="I39" s="15">
+        <f t="shared" si="12"/>
+        <v>488</v>
+      </c>
+      <c r="J39" s="15">
+        <f t="shared" si="12"/>
+        <v>459</v>
+      </c>
+      <c r="K39" s="15">
+        <f t="shared" si="12"/>
+        <v>455</v>
+      </c>
+      <c r="L39" s="15">
+        <f t="shared" si="12"/>
+        <v>423</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" si="12"/>
+        <v>367</v>
+      </c>
+      <c r="N39" s="15">
+        <f t="shared" si="12"/>
+        <v>303</v>
+      </c>
+      <c r="O39" s="15">
+        <f t="shared" si="12"/>
+        <v>234</v>
+      </c>
+      <c r="P39" s="15">
+        <f t="shared" si="12"/>
+        <v>206</v>
+      </c>
+      <c r="Q39" s="15">
+        <f>R39+Q18</f>
+        <v>119</v>
+      </c>
+      <c r="R39" s="12">
+        <f>R18</f>
         <v>90</v>
       </c>
     </row>

--- a/вариант/И.Баженов/1/18_16451_16451.xlsx
+++ b/вариант/И.Баженов/1/18_16451_16451.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="144525"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,26 +467,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="18" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>6</v>
       </c>
@@ -546,7 +542,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1">
+    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>32</v>
       </c>
@@ -602,7 +598,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>82</v>
       </c>
@@ -658,7 +654,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickTop="1">
+    <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>9</v>
       </c>
@@ -714,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>57</v>
       </c>
@@ -770,7 +766,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -826,7 +822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -882,7 +878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" thickTop="1">
+    <row r="8" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>18</v>
       </c>
@@ -938,7 +934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -994,7 +990,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>40</v>
       </c>
@@ -1050,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>97</v>
       </c>
@@ -1106,7 +1102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickTop="1">
+    <row r="12" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>54</v>
       </c>
@@ -1162,7 +1158,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>78</v>
       </c>
@@ -1218,7 +1214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>79</v>
       </c>
@@ -1274,7 +1270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>58</v>
       </c>
@@ -1330,7 +1326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>66</v>
       </c>
@@ -1386,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>56</v>
       </c>
@@ -1442,7 +1438,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>31</v>
       </c>
@@ -1498,82 +1494,82 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:21">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f>MIN(B22,A23)+A1</f>
+        <f t="shared" ref="A22:Q22" si="0">MIN(B22,A23)+A1</f>
         <v>1263</v>
       </c>
       <c r="B22" s="2">
-        <f>MIN(C22,B23)+B1</f>
+        <f t="shared" si="0"/>
         <v>1257</v>
       </c>
       <c r="C22" s="2">
-        <f>MIN(D22,C23)+C1</f>
+        <f t="shared" si="0"/>
         <v>1277</v>
       </c>
       <c r="D22" s="2">
-        <f>MIN(E22,D23)+D1</f>
+        <f t="shared" si="0"/>
         <v>1225</v>
       </c>
       <c r="E22" s="2">
-        <f>MIN(F22,E23)+E1</f>
+        <f t="shared" si="0"/>
         <v>1181</v>
       </c>
       <c r="F22" s="2">
-        <f>MIN(G22,F23)+F1</f>
+        <f t="shared" si="0"/>
         <v>1135</v>
       </c>
       <c r="G22" s="2">
-        <f>MIN(H22,G23)+G1</f>
+        <f t="shared" si="0"/>
         <v>1068</v>
       </c>
       <c r="H22" s="2">
-        <f>MIN(I22,H23)+H1</f>
+        <f t="shared" si="0"/>
         <v>1070</v>
       </c>
       <c r="I22" s="2">
-        <f>MIN(J22,I23)+I1</f>
+        <f t="shared" si="0"/>
         <v>1189</v>
       </c>
       <c r="J22" s="2">
-        <f>MIN(K22,J23)+J1</f>
+        <f t="shared" si="0"/>
         <v>1120</v>
       </c>
       <c r="K22" s="2">
-        <f>MIN(L22,K23)+K1</f>
+        <f t="shared" si="0"/>
         <v>1021</v>
       </c>
       <c r="L22" s="2">
-        <f>MIN(M22,L23)+L1</f>
+        <f t="shared" si="0"/>
         <v>987</v>
       </c>
       <c r="M22" s="2">
-        <f>MIN(N22,M23)+M1</f>
+        <f t="shared" si="0"/>
         <v>1104</v>
       </c>
       <c r="N22" s="2">
-        <f>MIN(O22,N23)+N1</f>
+        <f t="shared" si="0"/>
         <v>1096</v>
       </c>
       <c r="O22" s="2">
-        <f>MIN(P22,O23)+O1</f>
+        <f t="shared" si="0"/>
         <v>1020</v>
       </c>
       <c r="P22" s="2">
-        <f>MIN(Q22,P23)+P1</f>
+        <f t="shared" si="0"/>
         <v>991</v>
       </c>
       <c r="Q22" s="2">
-        <f>MIN(R22,Q23)+Q1</f>
+        <f t="shared" si="0"/>
         <v>1029</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" ref="R22:R37" si="0">R23+R1</f>
+        <f t="shared" ref="R22:R37" si="1">R23+R1</f>
         <v>1022</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f>MIN(B23,A24)+A2</f>
         <v>1288</v>
@@ -1587,73 +1583,73 @@
         <v>1238</v>
       </c>
       <c r="D23" s="17">
-        <f t="shared" ref="D23:E23" si="1">E23+D2</f>
+        <f t="shared" ref="D23:E23" si="2">E23+D2</f>
         <v>1140</v>
       </c>
       <c r="E23" s="17">
+        <f t="shared" si="2"/>
+        <v>1102</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" ref="F23:H26" si="3">MIN(G23,F24)+F2</f>
+        <v>1073</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="3"/>
+        <v>1036</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" ref="I23:I25" si="4">I24+I2</f>
+        <v>1117</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" ref="J23:Q23" si="5">MIN(K23,J24)+J2</f>
+        <v>1115</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="5"/>
+        <v>1016</v>
+      </c>
+      <c r="L23" s="5">
+        <f t="shared" si="5"/>
+        <v>979</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" si="5"/>
+        <v>1099</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="5"/>
+        <v>1055</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="5"/>
+        <v>996</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="5"/>
+        <v>988</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="5"/>
+        <v>967</v>
+      </c>
+      <c r="R23" s="14">
         <f t="shared" si="1"/>
-        <v>1102</v>
-      </c>
-      <c r="F23" s="5">
-        <f>MIN(G23,F24)+F2</f>
-        <v>1073</v>
-      </c>
-      <c r="G23" s="5">
-        <f>MIN(H23,G24)+G2</f>
-        <v>1000</v>
-      </c>
-      <c r="H23" s="5">
-        <f>MIN(I23,H24)+H2</f>
-        <v>1036</v>
-      </c>
-      <c r="I23" s="16">
-        <f t="shared" ref="I23:I25" si="2">I24+I2</f>
-        <v>1117</v>
-      </c>
-      <c r="J23" s="5">
-        <f>MIN(K23,J24)+J2</f>
-        <v>1115</v>
-      </c>
-      <c r="K23" s="5">
-        <f>MIN(L23,K24)+K2</f>
-        <v>1016</v>
-      </c>
-      <c r="L23" s="5">
-        <f>MIN(M23,L24)+L2</f>
-        <v>979</v>
-      </c>
-      <c r="M23" s="5">
-        <f>MIN(N23,M24)+M2</f>
-        <v>1099</v>
-      </c>
-      <c r="N23" s="5">
-        <f>MIN(O23,N24)+N2</f>
-        <v>1055</v>
-      </c>
-      <c r="O23" s="5">
-        <f>MIN(P23,O24)+O2</f>
-        <v>996</v>
-      </c>
-      <c r="P23" s="5">
-        <f>MIN(Q23,P24)+P2</f>
-        <v>988</v>
-      </c>
-      <c r="Q23" s="5">
-        <f>MIN(R23,Q24)+Q2</f>
-        <v>967</v>
-      </c>
-      <c r="R23" s="14">
-        <f t="shared" si="0"/>
         <v>944</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f>MIN(B24,A25)+A3</f>
+        <f t="shared" ref="A24:B28" si="6">MIN(B24,A25)+A3</f>
         <v>1270</v>
       </c>
       <c r="B24" s="5">
-        <f>MIN(C24,B25)+B3</f>
+        <f t="shared" si="6"/>
         <v>1248</v>
       </c>
       <c r="C24" s="16">
@@ -1661,73 +1657,73 @@
         <v>1274</v>
       </c>
       <c r="D24" s="5">
-        <f>MIN(E24,D25)+D3</f>
+        <f t="shared" ref="D24:D35" si="7">MIN(E24,D25)+D3</f>
         <v>1222</v>
       </c>
       <c r="E24" s="5">
-        <f>MIN(F24,E25)+E3</f>
+        <f t="shared" ref="E24:E35" si="8">MIN(F24,E25)+E3</f>
         <v>1141</v>
       </c>
       <c r="F24" s="5">
-        <f>MIN(G24,F25)+F3</f>
+        <f t="shared" si="3"/>
         <v>1084</v>
       </c>
       <c r="G24" s="5">
-        <f>MIN(H24,G25)+G3</f>
+        <f t="shared" si="3"/>
         <v>997</v>
       </c>
       <c r="H24" s="5">
-        <f>MIN(I24,H25)+H3</f>
+        <f t="shared" si="3"/>
         <v>988</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1088</v>
       </c>
       <c r="J24" s="5">
-        <f>MIN(K24,J25)+J3</f>
+        <f t="shared" ref="J24:L29" si="9">MIN(K24,J25)+J3</f>
         <v>1019</v>
       </c>
       <c r="K24" s="5">
-        <f>MIN(L24,K25)+K3</f>
+        <f t="shared" si="9"/>
         <v>922</v>
       </c>
       <c r="L24" s="5">
-        <f>MIN(M24,L25)+L3</f>
+        <f t="shared" si="9"/>
         <v>886</v>
       </c>
       <c r="M24" s="17">
-        <f t="shared" ref="M24:N24" si="3">N24+M3</f>
+        <f t="shared" ref="M24:N24" si="10">N24+M3</f>
         <v>1062</v>
       </c>
       <c r="N24" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>966</v>
       </c>
       <c r="O24" s="5">
-        <f>MIN(P24,O25)+O3</f>
+        <f t="shared" ref="O24:Q31" si="11">MIN(P24,O25)+O3</f>
         <v>914</v>
       </c>
       <c r="P24" s="5">
-        <f>MIN(Q24,P25)+P3</f>
+        <f t="shared" si="11"/>
         <v>969</v>
       </c>
       <c r="Q24" s="5">
-        <f>MIN(R24,Q25)+Q3</f>
+        <f t="shared" si="11"/>
         <v>908</v>
       </c>
       <c r="R24" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>847</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickTop="1">
+    <row r="25" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f>MIN(B25,A26)+A4</f>
+        <f t="shared" si="6"/>
         <v>1188</v>
       </c>
       <c r="B25" s="5">
-        <f>MIN(C25,B26)+B4</f>
+        <f t="shared" si="6"/>
         <v>1212</v>
       </c>
       <c r="C25" s="5">
@@ -1735,73 +1731,73 @@
         <v>1213</v>
       </c>
       <c r="D25" s="5">
-        <f>MIN(E25,D26)+D4</f>
+        <f t="shared" si="7"/>
         <v>1122</v>
       </c>
       <c r="E25" s="5">
-        <f>MIN(F25,E26)+E4</f>
+        <f t="shared" si="8"/>
         <v>1161</v>
       </c>
       <c r="F25" s="5">
-        <f>MIN(G25,F26)+F4</f>
+        <f t="shared" si="3"/>
         <v>1149</v>
       </c>
       <c r="G25" s="5">
-        <f>MIN(H25,G26)+G4</f>
+        <f t="shared" si="3"/>
         <v>1066</v>
       </c>
       <c r="H25" s="5">
-        <f>MIN(I25,H26)+H4</f>
+        <f t="shared" si="3"/>
         <v>976</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1019</v>
       </c>
       <c r="J25" s="5">
-        <f>MIN(K25,J26)+J4</f>
+        <f t="shared" si="9"/>
         <v>949</v>
       </c>
       <c r="K25" s="5">
-        <f>MIN(L25,K26)+K4</f>
+        <f t="shared" si="9"/>
         <v>909</v>
       </c>
       <c r="L25" s="5">
-        <f>MIN(M25,L26)+L4</f>
+        <f t="shared" si="9"/>
         <v>846</v>
       </c>
       <c r="M25" s="5">
-        <f>MIN(N25,M26)+M4</f>
+        <f t="shared" ref="M25:M30" si="12">MIN(N25,M26)+M4</f>
         <v>804</v>
       </c>
       <c r="N25" s="16">
-        <f t="shared" ref="N25:N28" si="4">N26+N4</f>
+        <f t="shared" ref="N25:N28" si="13">N26+N4</f>
         <v>787</v>
       </c>
       <c r="O25" s="5">
-        <f>MIN(P25,O26)+O4</f>
+        <f t="shared" si="11"/>
         <v>887</v>
       </c>
       <c r="P25" s="5">
-        <f>MIN(Q25,P26)+P4</f>
+        <f t="shared" si="11"/>
         <v>874</v>
       </c>
       <c r="Q25" s="5">
-        <f>MIN(R25,Q26)+Q4</f>
+        <f t="shared" si="11"/>
         <v>833</v>
       </c>
       <c r="R25" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f>MIN(B26,A27)+A5</f>
+        <f t="shared" si="6"/>
         <v>1179</v>
       </c>
       <c r="B26" s="5">
-        <f>MIN(C26,B27)+B5</f>
+        <f t="shared" si="6"/>
         <v>1211</v>
       </c>
       <c r="C26" s="5">
@@ -1809,73 +1805,73 @@
         <v>1170</v>
       </c>
       <c r="D26" s="5">
-        <f>MIN(E26,D27)+D5</f>
+        <f t="shared" si="7"/>
         <v>1081</v>
       </c>
       <c r="E26" s="5">
-        <f>MIN(F26,E27)+E5</f>
+        <f t="shared" si="8"/>
         <v>1181</v>
       </c>
       <c r="F26" s="5">
-        <f>MIN(G26,F27)+F5</f>
+        <f t="shared" si="3"/>
         <v>1092</v>
       </c>
       <c r="G26" s="5">
-        <f>MIN(H26,G27)+G5</f>
+        <f t="shared" si="3"/>
         <v>1024</v>
       </c>
       <c r="H26" s="5">
-        <f>MIN(I26,H27)+H5</f>
+        <f t="shared" si="3"/>
         <v>925</v>
       </c>
       <c r="I26" s="5">
-        <f>MIN(J26,I27)+I5</f>
+        <f t="shared" ref="I26:I38" si="14">MIN(J26,I27)+I5</f>
         <v>999</v>
       </c>
       <c r="J26" s="5">
-        <f>MIN(K26,J27)+J5</f>
+        <f t="shared" si="9"/>
         <v>913</v>
       </c>
       <c r="K26" s="5">
-        <f>MIN(L26,K27)+K5</f>
+        <f t="shared" si="9"/>
         <v>951</v>
       </c>
       <c r="L26" s="5">
-        <f>MIN(M26,L27)+L5</f>
+        <f t="shared" si="9"/>
         <v>869</v>
       </c>
       <c r="M26" s="5">
-        <f>MIN(N26,M27)+M5</f>
+        <f t="shared" si="12"/>
         <v>778</v>
       </c>
       <c r="N26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="O26" s="5">
-        <f>MIN(P26,O27)+O5</f>
+        <f t="shared" si="11"/>
         <v>791</v>
       </c>
       <c r="P26" s="5">
-        <f>MIN(Q26,P27)+P5</f>
+        <f t="shared" si="11"/>
         <v>824</v>
       </c>
       <c r="Q26" s="5">
-        <f>MIN(R26,Q27)+Q5</f>
+        <f t="shared" si="11"/>
         <v>773</v>
       </c>
       <c r="R26" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>799</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f>MIN(B27,A28)+A6</f>
+        <f t="shared" si="6"/>
         <v>1122</v>
       </c>
       <c r="B27" s="5">
-        <f>MIN(C27,B28)+B6</f>
+        <f t="shared" si="6"/>
         <v>1166</v>
       </c>
       <c r="C27" s="5">
@@ -1883,19 +1879,19 @@
         <v>1138</v>
       </c>
       <c r="D27" s="5">
-        <f>MIN(E27,D28)+D6</f>
+        <f t="shared" si="7"/>
         <v>1062</v>
       </c>
       <c r="E27" s="5">
-        <f>MIN(F27,E28)+E6</f>
+        <f t="shared" si="8"/>
         <v>1094</v>
       </c>
       <c r="F27" s="5">
-        <f>MIN(G27,F28)+F6</f>
+        <f t="shared" ref="F27:F35" si="15">MIN(G27,F28)+F6</f>
         <v>1105</v>
       </c>
       <c r="G27" s="16">
-        <f t="shared" ref="G27:G32" si="5">G28+G6</f>
+        <f t="shared" ref="G27:G32" si="16">G28+G6</f>
         <v>1163</v>
       </c>
       <c r="H27" s="5">
@@ -1903,53 +1899,53 @@
         <v>851</v>
       </c>
       <c r="I27" s="5">
-        <f>MIN(J27,I28)+I6</f>
+        <f t="shared" si="14"/>
         <v>958</v>
       </c>
       <c r="J27" s="5">
-        <f>MIN(K27,J28)+J6</f>
+        <f t="shared" si="9"/>
         <v>860</v>
       </c>
       <c r="K27" s="5">
-        <f>MIN(L27,K28)+K6</f>
+        <f t="shared" si="9"/>
         <v>874</v>
       </c>
       <c r="L27" s="5">
-        <f>MIN(M27,L28)+L6</f>
+        <f t="shared" si="9"/>
         <v>816</v>
       </c>
       <c r="M27" s="5">
-        <f>MIN(N27,M28)+M6</f>
+        <f t="shared" si="12"/>
         <v>756</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>696</v>
       </c>
       <c r="O27" s="5">
-        <f>MIN(P27,O28)+O6</f>
+        <f t="shared" si="11"/>
         <v>762</v>
       </c>
       <c r="P27" s="5">
-        <f>MIN(Q27,P28)+P6</f>
+        <f t="shared" si="11"/>
         <v>758</v>
       </c>
       <c r="Q27" s="5">
-        <f>MIN(R27,Q28)+Q6</f>
+        <f t="shared" si="11"/>
         <v>745</v>
       </c>
       <c r="R27" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>735</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1">
+    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f>MIN(B28,A29)+A7</f>
+        <f t="shared" si="6"/>
         <v>1022</v>
       </c>
       <c r="B28" s="5">
-        <f>MIN(C28,B29)+B7</f>
+        <f t="shared" si="6"/>
         <v>1186</v>
       </c>
       <c r="C28" s="17">
@@ -1957,19 +1953,19 @@
         <v>1150</v>
       </c>
       <c r="D28" s="5">
-        <f>MIN(E28,D29)+D7</f>
+        <f t="shared" si="7"/>
         <v>1051</v>
       </c>
       <c r="E28" s="5">
-        <f>MIN(F28,E29)+E7</f>
+        <f t="shared" si="8"/>
         <v>1025</v>
       </c>
       <c r="F28" s="5">
-        <f>MIN(G28,F29)+F7</f>
+        <f t="shared" si="15"/>
         <v>1014</v>
       </c>
       <c r="G28" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1090</v>
       </c>
       <c r="H28" s="5">
@@ -1977,43 +1973,43 @@
         <v>775</v>
       </c>
       <c r="I28" s="5">
-        <f>MIN(J28,I29)+I7</f>
+        <f t="shared" si="14"/>
         <v>875</v>
       </c>
       <c r="J28" s="5">
-        <f>MIN(K28,J29)+J7</f>
+        <f t="shared" si="9"/>
         <v>781</v>
       </c>
       <c r="K28" s="5">
-        <f>MIN(L28,K29)+K7</f>
+        <f t="shared" si="9"/>
         <v>777</v>
       </c>
       <c r="L28" s="5">
-        <f>MIN(M28,L29)+L7</f>
+        <f t="shared" si="9"/>
         <v>767</v>
       </c>
       <c r="M28" s="5">
-        <f>MIN(N28,M29)+M7</f>
+        <f t="shared" si="12"/>
         <v>719</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>655</v>
       </c>
       <c r="O28" s="5">
-        <f>MIN(P28,O29)+O7</f>
+        <f t="shared" si="11"/>
         <v>711</v>
       </c>
       <c r="P28" s="5">
-        <f>MIN(Q28,P29)+P7</f>
+        <f t="shared" si="11"/>
         <v>774</v>
       </c>
       <c r="Q28" s="5">
-        <f>MIN(R28,Q29)+Q7</f>
+        <f t="shared" si="11"/>
         <v>788</v>
       </c>
       <c r="R28" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>723</v>
       </c>
       <c r="T28">
@@ -2022,14 +2018,18 @@
       <c r="U28">
         <v>1108</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" thickTop="1">
+      <c r="V28">
+        <f>T28+U28</f>
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f>MIN(B29,A30)+A8</f>
+        <f t="shared" ref="A29:A35" si="17">MIN(B29,A30)+A8</f>
         <v>1020</v>
       </c>
       <c r="B29" s="16">
-        <f t="shared" ref="B29:B32" si="6">B30+B8</f>
+        <f t="shared" ref="B29:B32" si="18">B30+B8</f>
         <v>1106</v>
       </c>
       <c r="C29" s="5">
@@ -2037,19 +2037,19 @@
         <v>1108</v>
       </c>
       <c r="D29" s="5">
-        <f>MIN(E29,D30)+D8</f>
+        <f t="shared" si="7"/>
         <v>1085</v>
       </c>
       <c r="E29" s="5">
-        <f>MIN(F29,E30)+E8</f>
+        <f t="shared" si="8"/>
         <v>985</v>
       </c>
       <c r="F29" s="5">
-        <f>MIN(G29,F30)+F8</f>
+        <f t="shared" si="15"/>
         <v>1010</v>
       </c>
       <c r="G29" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>1030</v>
       </c>
       <c r="H29" s="5">
@@ -2057,53 +2057,53 @@
         <v>749</v>
       </c>
       <c r="I29" s="5">
-        <f>MIN(J29,I30)+I8</f>
+        <f t="shared" si="14"/>
         <v>848</v>
       </c>
       <c r="J29" s="5">
-        <f>MIN(K29,J30)+J8</f>
+        <f t="shared" si="9"/>
         <v>795</v>
       </c>
       <c r="K29" s="5">
-        <f>MIN(L29,K30)+K8</f>
+        <f t="shared" si="9"/>
         <v>808</v>
       </c>
       <c r="L29" s="5">
-        <f>MIN(M29,L30)+L8</f>
+        <f t="shared" si="9"/>
         <v>740</v>
       </c>
       <c r="M29" s="5">
-        <f>MIN(N29,M30)+M8</f>
+        <f t="shared" si="12"/>
         <v>692</v>
       </c>
       <c r="N29" s="5">
-        <f>MIN(O29,N30)+N8</f>
+        <f t="shared" ref="N29:N38" si="19">MIN(O29,N30)+N8</f>
         <v>623</v>
       </c>
       <c r="O29" s="5">
-        <f>MIN(P29,O30)+O8</f>
+        <f t="shared" si="11"/>
         <v>641</v>
       </c>
       <c r="P29" s="5">
-        <f>MIN(Q29,P30)+P8</f>
+        <f t="shared" si="11"/>
         <v>727</v>
       </c>
       <c r="Q29" s="5">
-        <f>MIN(R29,Q30)+Q8</f>
+        <f t="shared" si="11"/>
         <v>752</v>
       </c>
       <c r="R29" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>669</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f>MIN(B30,A31)+A9</f>
+        <f t="shared" si="17"/>
         <v>1002</v>
       </c>
       <c r="B30" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1011</v>
       </c>
       <c r="C30" s="5">
@@ -2111,19 +2111,19 @@
         <v>1104</v>
       </c>
       <c r="D30" s="5">
-        <f>MIN(E30,D31)+D9</f>
+        <f t="shared" si="7"/>
         <v>1015</v>
       </c>
       <c r="E30" s="5">
-        <f>MIN(F30,E31)+E9</f>
+        <f t="shared" si="8"/>
         <v>975</v>
       </c>
       <c r="F30" s="5">
-        <f>MIN(G30,F31)+F9</f>
+        <f t="shared" si="15"/>
         <v>932</v>
       </c>
       <c r="G30" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>974</v>
       </c>
       <c r="H30" s="5">
@@ -2131,11 +2131,11 @@
         <v>747</v>
       </c>
       <c r="I30" s="5">
-        <f>MIN(J30,I31)+I9</f>
+        <f t="shared" si="14"/>
         <v>799</v>
       </c>
       <c r="J30" s="16">
-        <f t="shared" ref="J30:J31" si="7">J31+J9</f>
+        <f t="shared" ref="J30:J31" si="20">J31+J9</f>
         <v>752</v>
       </c>
       <c r="K30" s="5">
@@ -2147,37 +2147,37 @@
         <v>667</v>
       </c>
       <c r="M30" s="5">
-        <f>MIN(N30,M31)+M9</f>
+        <f t="shared" si="12"/>
         <v>638</v>
       </c>
       <c r="N30" s="5">
-        <f>MIN(O30,N31)+N9</f>
+        <f t="shared" si="19"/>
         <v>573</v>
       </c>
       <c r="O30" s="5">
-        <f>MIN(P30,O31)+O9</f>
+        <f t="shared" si="11"/>
         <v>592</v>
       </c>
       <c r="P30" s="5">
-        <f>MIN(Q30,P31)+P9</f>
+        <f t="shared" si="11"/>
         <v>726</v>
       </c>
       <c r="Q30" s="5">
-        <f>MIN(R30,Q31)+Q9</f>
+        <f t="shared" si="11"/>
         <v>662</v>
       </c>
       <c r="R30" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>618</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" thickBot="1">
+    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <f>MIN(B31,A32)+A10</f>
+        <f t="shared" si="17"/>
         <v>994</v>
       </c>
       <c r="B31" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>954</v>
       </c>
       <c r="C31" s="5">
@@ -2185,19 +2185,19 @@
         <v>1015</v>
       </c>
       <c r="D31" s="5">
-        <f>MIN(E31,D32)+D10</f>
+        <f t="shared" si="7"/>
         <v>938</v>
       </c>
       <c r="E31" s="5">
-        <f>MIN(F31,E32)+E10</f>
+        <f t="shared" si="8"/>
         <v>913</v>
       </c>
       <c r="F31" s="5">
-        <f>MIN(G31,F32)+F10</f>
+        <f t="shared" si="15"/>
         <v>906</v>
       </c>
       <c r="G31" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>967</v>
       </c>
       <c r="H31" s="5">
@@ -2205,53 +2205,53 @@
         <v>725</v>
       </c>
       <c r="I31" s="5">
-        <f>MIN(J31,I32)+I10</f>
+        <f t="shared" si="14"/>
         <v>734</v>
       </c>
       <c r="J31" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>654</v>
       </c>
       <c r="K31" s="17">
-        <f t="shared" ref="K31:M31" si="8">L31+K10</f>
+        <f t="shared" ref="K31:M31" si="21">L31+K10</f>
         <v>716</v>
       </c>
       <c r="L31" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>618</v>
       </c>
       <c r="M31" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="21"/>
         <v>562</v>
       </c>
       <c r="N31" s="5">
-        <f>MIN(O31,N32)+N10</f>
+        <f t="shared" si="19"/>
         <v>517</v>
       </c>
       <c r="O31" s="5">
-        <f>MIN(P31,O32)+O10</f>
+        <f t="shared" si="11"/>
         <v>508</v>
       </c>
       <c r="P31" s="5">
-        <f>MIN(Q31,P32)+P10</f>
+        <f t="shared" si="11"/>
         <v>709</v>
       </c>
       <c r="Q31" s="5">
-        <f>MIN(R31,Q32)+Q10</f>
+        <f t="shared" si="11"/>
         <v>622</v>
       </c>
       <c r="R31" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <f>MIN(B32,A33)+A11</f>
+        <f t="shared" si="17"/>
         <v>1042</v>
       </c>
       <c r="B32" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>945</v>
       </c>
       <c r="C32" s="17">
@@ -2259,19 +2259,19 @@
         <v>999</v>
       </c>
       <c r="D32" s="5">
-        <f>MIN(E32,D33)+D11</f>
+        <f t="shared" si="7"/>
         <v>927</v>
       </c>
       <c r="E32" s="5">
-        <f>MIN(F32,E33)+E11</f>
+        <f t="shared" si="8"/>
         <v>895</v>
       </c>
       <c r="F32" s="5">
-        <f>MIN(G32,F33)+F11</f>
+        <f t="shared" si="15"/>
         <v>822</v>
       </c>
       <c r="G32" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>910</v>
       </c>
       <c r="H32" s="17">
@@ -2279,49 +2279,49 @@
         <v>697</v>
       </c>
       <c r="I32" s="5">
-        <f>MIN(J32,I33)+I11</f>
+        <f t="shared" si="14"/>
         <v>680</v>
       </c>
       <c r="J32" s="5">
-        <f>MIN(K32,J33)+J11</f>
+        <f t="shared" ref="J32:L38" si="22">MIN(K32,J33)+J11</f>
         <v>594</v>
       </c>
       <c r="K32" s="5">
-        <f>MIN(L32,K33)+K11</f>
+        <f t="shared" si="22"/>
         <v>577</v>
       </c>
       <c r="L32" s="5">
-        <f>MIN(M32,L33)+L11</f>
+        <f t="shared" si="22"/>
         <v>556</v>
       </c>
       <c r="M32" s="16">
-        <f t="shared" ref="M32:M35" si="9">M33+M11</f>
+        <f t="shared" ref="M32:M35" si="23">M33+M11</f>
         <v>596</v>
       </c>
       <c r="N32" s="5">
-        <f>MIN(O32,N33)+N11</f>
+        <f t="shared" si="19"/>
         <v>510</v>
       </c>
       <c r="O32" s="5">
-        <f>MIN(P32,O33)+O11</f>
+        <f t="shared" ref="O32:O38" si="24">MIN(P32,O33)+O11</f>
         <v>421</v>
       </c>
       <c r="P32" s="17">
-        <f t="shared" ref="P32:Q32" si="10">Q32+P11</f>
+        <f t="shared" ref="P32:Q32" si="25">Q32+P11</f>
         <v>670</v>
       </c>
       <c r="Q32" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="25"/>
         <v>580</v>
       </c>
       <c r="R32" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>507</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="15.75" thickTop="1">
+    <row r="33" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f>MIN(B33,A34)+A12</f>
+        <f t="shared" si="17"/>
         <v>961</v>
       </c>
       <c r="B33" s="5">
@@ -2333,69 +2333,69 @@
         <v>875</v>
       </c>
       <c r="D33" s="5">
-        <f>MIN(E33,D34)+D12</f>
+        <f t="shared" si="7"/>
         <v>928</v>
       </c>
       <c r="E33" s="5">
-        <f>MIN(F33,E34)+E12</f>
+        <f t="shared" si="8"/>
         <v>845</v>
       </c>
       <c r="F33" s="5">
-        <f>MIN(G33,F34)+F12</f>
+        <f t="shared" si="15"/>
         <v>811</v>
       </c>
       <c r="G33" s="5">
-        <f>MIN(H33,G34)+G12</f>
+        <f t="shared" ref="G33:G38" si="26">MIN(H33,G34)+G12</f>
         <v>821</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" ref="H33:H34" si="11">H34+H12</f>
+        <f t="shared" ref="H33:H34" si="27">H34+H12</f>
         <v>789</v>
       </c>
       <c r="I33" s="5">
-        <f>MIN(J33,I34)+I12</f>
+        <f t="shared" si="14"/>
         <v>584</v>
       </c>
       <c r="J33" s="5">
-        <f>MIN(K33,J34)+J12</f>
+        <f t="shared" si="22"/>
         <v>578</v>
       </c>
       <c r="K33" s="5">
-        <f>MIN(L33,K34)+K12</f>
+        <f t="shared" si="22"/>
         <v>557</v>
       </c>
       <c r="L33" s="5">
-        <f>MIN(M33,L34)+L12</f>
+        <f t="shared" si="22"/>
         <v>545</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>502</v>
       </c>
       <c r="N33" s="5">
-        <f>MIN(O33,N34)+N12</f>
+        <f t="shared" si="19"/>
         <v>510</v>
       </c>
       <c r="O33" s="5">
-        <f>MIN(P33,O34)+O12</f>
+        <f t="shared" si="24"/>
         <v>410</v>
       </c>
       <c r="P33" s="5">
-        <f>MIN(Q33,P34)+P12</f>
+        <f t="shared" ref="P33:Q38" si="28">MIN(Q33,P34)+P12</f>
         <v>402</v>
       </c>
       <c r="Q33" s="5">
-        <f>MIN(R33,Q34)+Q12</f>
+        <f t="shared" si="28"/>
         <v>463</v>
       </c>
       <c r="R33" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>425</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f>MIN(B34,A35)+A13</f>
+        <f t="shared" si="17"/>
         <v>969</v>
       </c>
       <c r="B34" s="5">
@@ -2407,69 +2407,69 @@
         <v>871</v>
       </c>
       <c r="D34" s="5">
-        <f>MIN(E34,D35)+D13</f>
+        <f t="shared" si="7"/>
         <v>862</v>
       </c>
       <c r="E34" s="5">
-        <f>MIN(F34,E35)+E13</f>
+        <f t="shared" si="8"/>
         <v>820</v>
       </c>
       <c r="F34" s="5">
-        <f>MIN(G34,F35)+F13</f>
+        <f t="shared" si="15"/>
         <v>796</v>
       </c>
       <c r="G34" s="5">
-        <f>MIN(H34,G35)+G13</f>
+        <f t="shared" si="26"/>
         <v>723</v>
       </c>
       <c r="H34" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="27"/>
         <v>696</v>
       </c>
       <c r="I34" s="5">
-        <f>MIN(J34,I35)+I13</f>
+        <f t="shared" si="14"/>
         <v>738</v>
       </c>
       <c r="J34" s="5">
-        <f>MIN(K34,J35)+J13</f>
+        <f t="shared" si="22"/>
         <v>643</v>
       </c>
       <c r="K34" s="5">
-        <f>MIN(L34,K35)+K13</f>
+        <f t="shared" si="22"/>
         <v>557</v>
       </c>
       <c r="L34" s="5">
-        <f>MIN(M34,L35)+L13</f>
+        <f t="shared" si="22"/>
         <v>485</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>467</v>
       </c>
       <c r="N34" s="5">
-        <f>MIN(O34,N35)+N13</f>
+        <f t="shared" si="19"/>
         <v>433</v>
       </c>
       <c r="O34" s="5">
-        <f>MIN(P34,O35)+O13</f>
+        <f t="shared" si="24"/>
         <v>422</v>
       </c>
       <c r="P34" s="5">
-        <f>MIN(Q34,P35)+P13</f>
+        <f t="shared" si="28"/>
         <v>350</v>
       </c>
       <c r="Q34" s="5">
-        <f>MIN(R34,Q35)+Q13</f>
+        <f t="shared" si="28"/>
         <v>365</v>
       </c>
       <c r="R34" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f>MIN(B35,A36)+A14</f>
+        <f t="shared" si="17"/>
         <v>985</v>
       </c>
       <c r="B35" s="5">
@@ -2481,19 +2481,19 @@
         <v>890</v>
       </c>
       <c r="D35" s="5">
-        <f>MIN(E35,D36)+D14</f>
+        <f t="shared" si="7"/>
         <v>820</v>
       </c>
       <c r="E35" s="5">
-        <f>MIN(F35,E36)+E14</f>
+        <f t="shared" si="8"/>
         <v>743</v>
       </c>
       <c r="F35" s="5">
-        <f>MIN(G35,F36)+F14</f>
+        <f t="shared" si="15"/>
         <v>715</v>
       </c>
       <c r="G35" s="5">
-        <f>MIN(H35,G36)+G14</f>
+        <f t="shared" si="26"/>
         <v>624</v>
       </c>
       <c r="H35" s="5">
@@ -2501,47 +2501,47 @@
         <v>626</v>
       </c>
       <c r="I35" s="5">
-        <f>MIN(J35,I36)+I14</f>
+        <f t="shared" si="14"/>
         <v>659</v>
       </c>
       <c r="J35" s="5">
-        <f>MIN(K35,J36)+J14</f>
+        <f t="shared" si="22"/>
         <v>581</v>
       </c>
       <c r="K35" s="5">
-        <f>MIN(L35,K36)+K14</f>
+        <f t="shared" si="22"/>
         <v>624</v>
       </c>
       <c r="L35" s="5">
-        <f>MIN(M35,L36)+L14</f>
+        <f t="shared" si="22"/>
         <v>535</v>
       </c>
       <c r="M35" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="23"/>
         <v>461</v>
       </c>
       <c r="N35" s="5">
-        <f>MIN(O35,N36)+N14</f>
+        <f t="shared" si="19"/>
         <v>379</v>
       </c>
       <c r="O35" s="5">
-        <f>MIN(P35,O36)+O14</f>
+        <f t="shared" si="24"/>
         <v>374</v>
       </c>
       <c r="P35" s="5">
-        <f>MIN(Q35,P36)+P14</f>
+        <f t="shared" si="28"/>
         <v>331</v>
       </c>
       <c r="Q35" s="5">
-        <f>MIN(R35,Q36)+Q14</f>
+        <f t="shared" si="28"/>
         <v>336</v>
       </c>
       <c r="R35" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>322</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2549,7 +2549,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="7"/>
       <c r="G36" s="5">
-        <f>MIN(H36,G37)+G15</f>
+        <f t="shared" si="26"/>
         <v>591</v>
       </c>
       <c r="H36" s="5">
@@ -2557,19 +2557,19 @@
         <v>586</v>
       </c>
       <c r="I36" s="5">
-        <f>MIN(J36,I37)+I15</f>
+        <f t="shared" si="14"/>
         <v>568</v>
       </c>
       <c r="J36" s="5">
-        <f>MIN(K36,J37)+J15</f>
+        <f t="shared" si="22"/>
         <v>562</v>
       </c>
       <c r="K36" s="5">
-        <f>MIN(L36,K37)+K15</f>
+        <f t="shared" si="22"/>
         <v>540</v>
       </c>
       <c r="L36" s="5">
-        <f>MIN(M36,L37)+L15</f>
+        <f t="shared" si="22"/>
         <v>493</v>
       </c>
       <c r="M36" s="5">
@@ -2577,27 +2577,27 @@
         <v>393</v>
       </c>
       <c r="N36" s="5">
-        <f>MIN(O36,N37)+N15</f>
+        <f t="shared" si="19"/>
         <v>391</v>
       </c>
       <c r="O36" s="5">
-        <f>MIN(P36,O37)+O15</f>
+        <f t="shared" si="24"/>
         <v>303</v>
       </c>
       <c r="P36" s="5">
-        <f>MIN(Q36,P37)+P15</f>
+        <f t="shared" si="28"/>
         <v>302</v>
       </c>
       <c r="Q36" s="5">
-        <f>MIN(R36,Q37)+Q15</f>
+        <f t="shared" si="28"/>
         <v>240</v>
       </c>
       <c r="R36" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2605,7 +2605,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="7"/>
       <c r="G37" s="5">
-        <f>MIN(H37,G38)+G16</f>
+        <f t="shared" si="26"/>
         <v>638</v>
       </c>
       <c r="H37" s="5">
@@ -2613,19 +2613,19 @@
         <v>541</v>
       </c>
       <c r="I37" s="5">
-        <f>MIN(J37,I38)+I16</f>
+        <f t="shared" si="14"/>
         <v>521</v>
       </c>
       <c r="J37" s="5">
-        <f>MIN(K37,J38)+J16</f>
+        <f t="shared" si="22"/>
         <v>513</v>
       </c>
       <c r="K37" s="5">
-        <f>MIN(L37,K38)+K16</f>
+        <f t="shared" si="22"/>
         <v>527</v>
       </c>
       <c r="L37" s="5">
-        <f>MIN(M37,L38)+L16</f>
+        <f t="shared" si="22"/>
         <v>428</v>
       </c>
       <c r="M37" s="5">
@@ -2633,27 +2633,27 @@
         <v>335</v>
       </c>
       <c r="N37" s="5">
-        <f>MIN(O37,N38)+N16</f>
+        <f t="shared" si="19"/>
         <v>323</v>
       </c>
       <c r="O37" s="5">
-        <f>MIN(P37,O38)+O16</f>
+        <f t="shared" si="24"/>
         <v>282</v>
       </c>
       <c r="P37" s="5">
-        <f>MIN(Q37,P38)+P16</f>
+        <f t="shared" si="28"/>
         <v>279</v>
       </c>
       <c r="Q37" s="5">
-        <f>MIN(R37,Q38)+Q16</f>
+        <f t="shared" si="28"/>
         <v>181</v>
       </c>
       <c r="R37" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" thickBot="1">
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2661,7 +2661,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="7"/>
       <c r="G38" s="5">
-        <f>MIN(H38,G39)+G17</f>
+        <f t="shared" si="26"/>
         <v>651</v>
       </c>
       <c r="H38" s="5">
@@ -2669,19 +2669,19 @@
         <v>584</v>
       </c>
       <c r="I38" s="5">
-        <f>MIN(J38,I39)+I17</f>
+        <f t="shared" si="14"/>
         <v>500</v>
       </c>
       <c r="J38" s="6">
-        <f>MIN(K38,J39)+J17</f>
+        <f t="shared" si="22"/>
         <v>474</v>
       </c>
       <c r="K38" s="6">
-        <f>MIN(L38,K39)+K17</f>
+        <f t="shared" si="22"/>
         <v>448</v>
       </c>
       <c r="L38" s="5">
-        <f>MIN(M38,L39)+L17</f>
+        <f t="shared" si="22"/>
         <v>447</v>
       </c>
       <c r="M38" s="5">
@@ -2689,19 +2689,19 @@
         <v>360</v>
       </c>
       <c r="N38" s="5">
-        <f>MIN(O38,N39)+N17</f>
+        <f t="shared" si="19"/>
         <v>266</v>
       </c>
       <c r="O38" s="5">
-        <f>MIN(P38,O39)+O17</f>
+        <f t="shared" si="24"/>
         <v>228</v>
       </c>
       <c r="P38" s="5">
-        <f>MIN(Q38,P39)+P17</f>
+        <f t="shared" si="28"/>
         <v>218</v>
       </c>
       <c r="Q38" s="5">
-        <f>MIN(R38,Q39)+Q17</f>
+        <f t="shared" si="28"/>
         <v>150</v>
       </c>
       <c r="R38" s="14">
@@ -2709,7 +2709,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -2717,43 +2717,43 @@
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="15">
-        <f t="shared" ref="A39:P39" si="12">H39+G18</f>
+        <f t="shared" ref="G39:P39" si="29">H39+G18</f>
         <v>585</v>
       </c>
       <c r="H39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>551</v>
       </c>
       <c r="I39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>488</v>
       </c>
       <c r="J39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>459</v>
       </c>
       <c r="K39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>455</v>
       </c>
       <c r="L39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>423</v>
       </c>
       <c r="M39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>367</v>
       </c>
       <c r="N39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>303</v>
       </c>
       <c r="O39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>234</v>
       </c>
       <c r="P39" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>206</v>
       </c>
       <c r="Q39" s="15">
